--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\Code\PYTHON\Web-Scrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Desktop\MM Project\Main\Script\mentor_form_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E85294F-B8D9-4822-984F-72BA3CE2F4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8736A7E-4B8C-4507-9356-DEBDD5F552E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CBD9DEE-BE9E-47ED-99C2-DBB94814084C}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Office of Quality Assurance</t>
   </si>
   <si>
-    <t>Department of Computer Science</t>
-  </si>
-  <si>
     <t>Semester 1 Semester End Semester Resilt</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>CGPA:</t>
+  </si>
+  <si>
+    <t>Department of ______________</t>
   </si>
 </sst>
 </file>
@@ -104,12 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +426,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:K4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,12 +442,12 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -457,33 +456,33 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G15" s="1"/>
     </row>
